--- a/biology/Zoologie/Aulophyseter/Aulophyseter.xlsx
+++ b/biology/Zoologie/Aulophyseter/Aulophyseter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Aulophyseter est un genre éteint de mammifères marins de la super-famille des Physeteroidea regroupant regroupe trois espèces proches du cachalot actuel ayant vécu du Langhien au Messinien, soit durant la moitié du Miocène, il y a entre 15,97 et 5,332 millions d'années des deux côtes de l'Amérique du Nord, ainsi que de la région de Patagonie de l'Amérique du Sud et au Japon.
@@ -512,9 +524,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aulophyseter a atteint une longueur d’environ 6 mètres avec un poids corporel estimé à 1 100 kilogrammes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aulophyseter a atteint une longueur d’environ 6 mètres avec un poids corporel estimé à 1 100 kilogrammes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lieux des fossiles d'Aulophyseter ont été trouvés :
 Japon
@@ -577,7 +593,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulophyseter se nourrissait de calmars et de poissons tels que les thons[réf. nécessaire].
 </t>
@@ -608,7 +626,9 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un seul fossile complet en a été découvert. Sa taille est de 6 mètres de long. Les autres fossiles sont des fragments de crâne et des dents.
 </t>
